--- a/Excel/09.Assignment 09/Radiation Amounts.xlsx
+++ b/Excel/09.Assignment 09/Radiation Amounts.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venka\Downloads\Ineuron.ai\20 questions\Ineuron Assignment\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amano\Documents\iNeuron-Assignments\Excel\09.Assignment 09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3050DEA9-0FBE-48D5-BFD2-C9687B6F39DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D4FDDA-E7AB-4FB9-91B9-72D9F3DBC398}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>RadiationAmt</t>
+  </si>
+  <si>
+    <t>Maximum Radiation</t>
+  </si>
+  <si>
+    <t>Minimum Radiation</t>
+  </si>
+  <si>
+    <t>Sum of Radiation</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
   </si>
 </sst>
 </file>
@@ -362,256 +386,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>155</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>142</v>
       </c>
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>MAX(A2:A41)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>149</v>
       </c>
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>MIN(A2:A41)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>130</v>
       </c>
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>SUM(A2:A41)</f>
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>151</v>
       </c>
       <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>163</v>
       </c>
       <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>COUNT(A2:A41)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>151</v>
       </c>
       <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>142</v>
       </c>
       <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE(A2:A41)</f>
+        <v>149.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>156</v>
       </c>
       <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>133</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>138</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>161</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>128</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>144</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>172</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>137</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>151</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>166</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>147</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>163</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>145</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>116</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>136</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>158</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>114</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>165</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>169</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>145</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>150</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>150</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>150</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>158</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>151</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>145</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>152</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>140</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>170</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>129</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>188</v>
       </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>156</v>
       </c>
